--- a/admin/report2.xlsx
+++ b/admin/report2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Посещаемость учащихся за предыдущий месяц</t>
   </si>
@@ -24,6 +24,36 @@
   </si>
   <si>
     <t>Кол-во занятий</t>
+  </si>
+  <si>
+    <t>Неретин Даниил Александрович</t>
+  </si>
+  <si>
+    <t>Титова Анна Дмитриевна</t>
+  </si>
+  <si>
+    <t>Кулак Денис Олегович</t>
+  </si>
+  <si>
+    <t>Шидловский Олег Даниилович</t>
+  </si>
+  <si>
+    <t>Фролов Глеб Валентинович</t>
+  </si>
+  <si>
+    <t>Губин Дмитрий Владиславович</t>
+  </si>
+  <si>
+    <t>Котляренко Евгений Сергеевич</t>
+  </si>
+  <si>
+    <t>Говако Валентин Генадьевич</t>
+  </si>
+  <si>
+    <t>Щекова Кристина Ивановна</t>
+  </si>
+  <si>
+    <t>Тиханович Мирослава Ильична</t>
   </si>
 </sst>
 </file>
@@ -362,7 +392,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,6 +415,86 @@
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/report2.xlsx
+++ b/admin/report2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Посещаемость учащихся за предыдущий месяц</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Тиханович Мирослава Ильична</t>
+  </si>
+  <si>
+    <t>Шапокляк Эльвира Александровна</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +497,14 @@
         <v>12</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
     </row>

--- a/admin/report2.xlsx
+++ b/admin/report2.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
-  <si>
-    <t>Посещаемость учащихся за предыдущий месяц</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+  <si>
+    <t>Посещение занятий учащимися в период с 2022-06-13 по 2022-06-19</t>
   </si>
   <si>
     <t>Фамилия И.О.</t>
@@ -29,6 +29,9 @@
     <t>Неретин Даниил Александрович</t>
   </si>
   <si>
+    <t>Фролов Глеб Валентинович</t>
+  </si>
+  <si>
     <t>Титова Анна Дмитриевна</t>
   </si>
   <si>
@@ -38,25 +41,97 @@
     <t>Шидловский Олег Даниилович</t>
   </si>
   <si>
-    <t>Фролов Глеб Валентинович</t>
+    <t>Горбунова Фия Тихоновна</t>
   </si>
   <si>
     <t>Губин Дмитрий Владиславович</t>
   </si>
   <si>
+    <t>Якушев Тимур Богданович</t>
+  </si>
+  <si>
+    <t>Киселёв Ян Русланович</t>
+  </si>
+  <si>
+    <t>Карпова Эвелина Парфеньевна</t>
+  </si>
+  <si>
+    <t>Комарова Богдана Митрофановна</t>
+  </si>
+  <si>
+    <t>Рябова Агнесса Дмитриевна</t>
+  </si>
+  <si>
+    <t>Капустина Фия Фроловна</t>
+  </si>
+  <si>
+    <t>Шапокляк Эльвира Александровна</t>
+  </si>
+  <si>
+    <t>Щекова Кристина Ивановна</t>
+  </si>
+  <si>
+    <t>Говако Валентин Генадьевич</t>
+  </si>
+  <si>
     <t>Котляренко Евгений Сергеевич</t>
   </si>
   <si>
-    <t>Говако Валентин Генадьевич</t>
-  </si>
-  <si>
-    <t>Щекова Кристина Ивановна</t>
-  </si>
-  <si>
     <t>Тиханович Мирослава Ильична</t>
   </si>
   <si>
-    <t>Шапокляк Эльвира Александровна</t>
+    <t>Лащевский Андрей Валерьевич</t>
+  </si>
+  <si>
+    <t>Нестеров Исаак Альбертович</t>
+  </si>
+  <si>
+    <t>Дьячков Петр Вениаминович</t>
+  </si>
+  <si>
+    <t>Королёв Афанасий Павлович</t>
+  </si>
+  <si>
+    <t>Борисов Август Агафонович</t>
+  </si>
+  <si>
+    <t>Пахомов Устин Давидович</t>
+  </si>
+  <si>
+    <t>Князев Исаак Геннадьевич</t>
+  </si>
+  <si>
+    <t>Тихонов Платон Авдеевич</t>
+  </si>
+  <si>
+    <t>Новиков Соломон Михайлович</t>
+  </si>
+  <si>
+    <t>Зайцева Клара Евсеевна</t>
+  </si>
+  <si>
+    <t>Блохина Нева Феликсовна</t>
+  </si>
+  <si>
+    <t>Морозова Эдда Еремеевна</t>
+  </si>
+  <si>
+    <t>Соловьёв Богдан Рудольфович</t>
+  </si>
+  <si>
+    <t>Владимиров Пантелей Онисимович</t>
+  </si>
+  <si>
+    <t>Аксёнов Захар Георгьевич</t>
+  </si>
+  <si>
+    <t>Ковалёв Климент Валентинович</t>
+  </si>
+  <si>
+    <t>Тихонов Орест Аристархович</t>
+  </si>
+  <si>
+    <t>Кузнецова Ангелина Филипповна</t>
   </si>
 </sst>
 </file>
@@ -395,7 +470,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -433,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -441,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -449,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -457,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -465,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -473,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -481,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -489,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -497,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -505,6 +580,206 @@
         <v>13</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
         <v>0</v>
       </c>
     </row>

--- a/admin/report2.xlsx
+++ b/admin/report2.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
-    <t>Посещение занятий учащимися в период с 2022-06-13 по 2022-06-19</t>
+    <t>Посещение занятий учащимися в период с 2022-06-20 по 2022-06-26</t>
   </si>
   <si>
     <t>Фамилия И.О.</t>
@@ -29,85 +29,85 @@
     <t>Неретин Даниил Александрович</t>
   </si>
   <si>
+    <t>Титова Анна Дмитриевна</t>
+  </si>
+  <si>
+    <t>Кулак Денис Олегович</t>
+  </si>
+  <si>
+    <t>Шидловский Олег Даниилович</t>
+  </si>
+  <si>
     <t>Фролов Глеб Валентинович</t>
   </si>
   <si>
-    <t>Титова Анна Дмитриевна</t>
-  </si>
-  <si>
-    <t>Кулак Денис Олегович</t>
-  </si>
-  <si>
-    <t>Шидловский Олег Даниилович</t>
+    <t>Губин Дмитрий Владиславович</t>
+  </si>
+  <si>
+    <t>Котляренко Евгений Сергеевич</t>
+  </si>
+  <si>
+    <t>Говако Валентин Генадьевич</t>
+  </si>
+  <si>
+    <t>Щекова Кристина Ивановна</t>
+  </si>
+  <si>
+    <t>Тиханович Мирослава Ильична</t>
+  </si>
+  <si>
+    <t>Шапокляк Эльвира Александровна</t>
+  </si>
+  <si>
+    <t>Лащевский Андрей Валерьевич</t>
+  </si>
+  <si>
+    <t>Нестеров Исаак Альбертович</t>
+  </si>
+  <si>
+    <t>Дьячков Петр Вениаминович</t>
+  </si>
+  <si>
+    <t>Королёв Афанасий Павлович</t>
+  </si>
+  <si>
+    <t>Борисов Август Агафонович</t>
+  </si>
+  <si>
+    <t>Пахомов Устин Давидович</t>
+  </si>
+  <si>
+    <t>Князев Исаак Геннадьевич</t>
+  </si>
+  <si>
+    <t>Тихонов Платон Авдеевич</t>
+  </si>
+  <si>
+    <t>Новиков Соломон Михайлович</t>
+  </si>
+  <si>
+    <t>Якушев Тимур Богданович</t>
+  </si>
+  <si>
+    <t>Киселёв Ян Русланович</t>
+  </si>
+  <si>
+    <t>Карпова Эвелина Парфеньевна</t>
+  </si>
+  <si>
+    <t>Комарова Богдана Митрофановна</t>
+  </si>
+  <si>
+    <t>Рябова Агнесса Дмитриевна</t>
+  </si>
+  <si>
+    <t>Капустина Фия Фроловна</t>
+  </si>
+  <si>
+    <t>Зайцева Клара Евсеевна</t>
   </si>
   <si>
     <t>Горбунова Фия Тихоновна</t>
-  </si>
-  <si>
-    <t>Губин Дмитрий Владиславович</t>
-  </si>
-  <si>
-    <t>Якушев Тимур Богданович</t>
-  </si>
-  <si>
-    <t>Киселёв Ян Русланович</t>
-  </si>
-  <si>
-    <t>Карпова Эвелина Парфеньевна</t>
-  </si>
-  <si>
-    <t>Комарова Богдана Митрофановна</t>
-  </si>
-  <si>
-    <t>Рябова Агнесса Дмитриевна</t>
-  </si>
-  <si>
-    <t>Капустина Фия Фроловна</t>
-  </si>
-  <si>
-    <t>Шапокляк Эльвира Александровна</t>
-  </si>
-  <si>
-    <t>Щекова Кристина Ивановна</t>
-  </si>
-  <si>
-    <t>Говако Валентин Генадьевич</t>
-  </si>
-  <si>
-    <t>Котляренко Евгений Сергеевич</t>
-  </si>
-  <si>
-    <t>Тиханович Мирослава Ильична</t>
-  </si>
-  <si>
-    <t>Лащевский Андрей Валерьевич</t>
-  </si>
-  <si>
-    <t>Нестеров Исаак Альбертович</t>
-  </si>
-  <si>
-    <t>Дьячков Петр Вениаминович</t>
-  </si>
-  <si>
-    <t>Королёв Афанасий Павлович</t>
-  </si>
-  <si>
-    <t>Борисов Август Агафонович</t>
-  </si>
-  <si>
-    <t>Пахомов Устин Давидович</t>
-  </si>
-  <si>
-    <t>Князев Исаак Геннадьевич</t>
-  </si>
-  <si>
-    <t>Тихонов Платон Авдеевич</t>
-  </si>
-  <si>
-    <t>Новиков Соломон Михайлович</t>
-  </si>
-  <si>
-    <t>Зайцева Клара Евсеевна</t>
   </si>
   <si>
     <t>Блохина Нева Феликсовна</t>
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -508,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -532,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -548,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -556,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -572,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -588,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -612,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -620,7 +620,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -628,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">

--- a/admin/report2.xlsx
+++ b/admin/report2.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
-  <si>
-    <t>Посещение занятий учащимися в период с 2022-06-20 по 2022-06-26</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+  <si>
+    <t>Посещение занятий учащимися в период с 2022-06-13 по 2022-06-26</t>
   </si>
   <si>
     <t>Фамилия И.О.</t>
@@ -29,6 +29,9 @@
     <t>Неретин Даниил Александрович</t>
   </si>
   <si>
+    <t>Фролов Глеб Валентинович</t>
+  </si>
+  <si>
     <t>Титова Анна Дмитриевна</t>
   </si>
   <si>
@@ -38,27 +41,45 @@
     <t>Шидловский Олег Даниилович</t>
   </si>
   <si>
-    <t>Фролов Глеб Валентинович</t>
+    <t>Горбунова Фия Тихоновна</t>
   </si>
   <si>
     <t>Губин Дмитрий Владиславович</t>
   </si>
   <si>
+    <t>Якушев Тимур Богданович</t>
+  </si>
+  <si>
+    <t>Киселёв Ян Русланович</t>
+  </si>
+  <si>
+    <t>Карпова Эвелина Парфеньевна</t>
+  </si>
+  <si>
+    <t>Комарова Богдана Митрофановна</t>
+  </si>
+  <si>
+    <t>Рябова Агнесса Дмитриевна</t>
+  </si>
+  <si>
+    <t>Капустина Фия Фроловна</t>
+  </si>
+  <si>
+    <t>Шапокляк Эльвира Александровна</t>
+  </si>
+  <si>
+    <t>Щекова Кристина Ивановна</t>
+  </si>
+  <si>
+    <t>Говако Валентин Генадьевич</t>
+  </si>
+  <si>
     <t>Котляренко Евгений Сергеевич</t>
   </si>
   <si>
-    <t>Говако Валентин Генадьевич</t>
-  </si>
-  <si>
-    <t>Щекова Кристина Ивановна</t>
-  </si>
-  <si>
     <t>Тиханович Мирослава Ильична</t>
   </si>
   <si>
-    <t>Шапокляк Эльвира Александровна</t>
-  </si>
-  <si>
     <t>Лащевский Андрей Валерьевич</t>
   </si>
   <si>
@@ -86,30 +107,9 @@
     <t>Новиков Соломон Михайлович</t>
   </si>
   <si>
-    <t>Якушев Тимур Богданович</t>
-  </si>
-  <si>
-    <t>Киселёв Ян Русланович</t>
-  </si>
-  <si>
-    <t>Карпова Эвелина Парфеньевна</t>
-  </si>
-  <si>
-    <t>Комарова Богдана Митрофановна</t>
-  </si>
-  <si>
-    <t>Рябова Агнесса Дмитриевна</t>
-  </si>
-  <si>
-    <t>Капустина Фия Фроловна</t>
-  </si>
-  <si>
     <t>Зайцева Клара Евсеевна</t>
   </si>
   <si>
-    <t>Горбунова Фия Тихоновна</t>
-  </si>
-  <si>
     <t>Блохина Нева Феликсовна</t>
   </si>
   <si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Кузнецова Ангелина Филипповна</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -508,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -516,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -524,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -532,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -540,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -548,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -556,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -564,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -572,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -580,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -588,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -596,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -604,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -612,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -620,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -628,7 +631,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -780,6 +783,14 @@
         <v>38</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
         <v>0</v>
       </c>
     </row>
